--- a/USBR_2018_data_sample.xlsx
+++ b/USBR_2018_data_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwind\OneDrive\Writing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8DAD8692-2068-4405-A426-715D7E13AF6B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{959BAF18-B057-4424-B5CD-57E7F9B6DE9C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22995" yWindow="8115" windowWidth="15390" windowHeight="9540" activeTab="2" xr2:uid="{F935EE21-EB37-4481-BFAD-EBD97B880C2B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F935EE21-EB37-4481-BFAD-EBD97B880C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -43834,8 +43834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18476D05-F156-402B-AE55-99FE115A834E}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48794,8 +48794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617E87D1-020C-4BE9-B82A-4B869182388D}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51683,7 +51683,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="54" t="str">
-        <f t="array" ref="N48">IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
         <v>h ost, l clam</v>
       </c>
       <c r="O48" s="54" t="s">
@@ -51899,7 +51899,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/USBR_2018_data_sample.xlsx
+++ b/USBR_2018_data_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwind\OneDrive\Writing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{959BAF18-B057-4424-B5CD-57E7F9B6DE9C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{981A3BF5-8A86-40E0-93B4-D993225BFF01}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F935EE21-EB37-4481-BFAD-EBD97B880C2B}"/>
   </bookViews>
@@ -48795,7 +48795,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48868,988 +48868,1100 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43111</v>
-      </c>
-      <c r="I2" s="41">
+      <c r="A2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="52">
+        <v>43132</v>
+      </c>
+      <c r="I2" s="53">
         <f t="array" ref="I2">IFERROR(VLOOKUP($A2,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="53">
         <f t="array" ref="J2">IFERROR(VLOOKUP($A2,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="53">
         <f t="array" ref="K2">IFERROR(VLOOKUP($A2,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="L2" s="42" t="str">
+        <v>43192</v>
+      </c>
+      <c r="L2" s="54" t="str">
         <f t="array" ref="L2">IFERROR(VLOOKUP($A2,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M2" s="42">
+        <v>rq</v>
+      </c>
+      <c r="M2" s="54">
         <f t="array" ref="M2">IFERROR(VLOOKUP($A2,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="42">
+        <v>38550</v>
+      </c>
+      <c r="N2" s="54" t="str">
         <f t="array" ref="N2">IFERROR(VLOOKUP($A2,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="42" t="s">
+        <v>sub smp</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="R2" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="S2" s="42"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="14">
-        <v>43111</v>
-      </c>
-      <c r="I3" s="41">
+      <c r="A3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="52">
+        <v>43132</v>
+      </c>
+      <c r="I3" s="53">
         <f t="array" ref="I3">IFERROR(VLOOKUP($A3,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="53">
         <f t="array" ref="J3">IFERROR(VLOOKUP($A3,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="53">
         <f t="array" ref="K3">IFERROR(VLOOKUP($A3,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="L3" s="42" t="str">
+        <v>43193</v>
+      </c>
+      <c r="L3" s="54" t="str">
         <f t="array" ref="L3">IFERROR(VLOOKUP($A3,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="54">
         <f t="array" ref="M3">IFERROR(VLOOKUP($A3,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="42">
+        <v>21567</v>
+      </c>
+      <c r="N3" s="54" t="str">
         <f t="array" ref="N3">IFERROR(VLOOKUP($A3,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="42" t="s">
+        <v/>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="R3" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3" s="42"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43111</v>
-      </c>
-      <c r="I4" s="41">
+      <c r="A4" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="52">
+        <v>43132</v>
+      </c>
+      <c r="I4" s="53">
         <f t="array" ref="I4">IFERROR(VLOOKUP($A4,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="53">
         <f t="array" ref="J4">IFERROR(VLOOKUP($A4,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="53">
         <f t="array" ref="K4">IFERROR(VLOOKUP($A4,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="L4" s="42" t="str">
+        <v>43192</v>
+      </c>
+      <c r="L4" s="54" t="str">
         <f t="array" ref="L4">IFERROR(VLOOKUP($A4,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M4" s="42">
+        <v>rq</v>
+      </c>
+      <c r="M4" s="54">
         <f t="array" ref="M4">IFERROR(VLOOKUP($A4,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="42">
+        <v>29400</v>
+      </c>
+      <c r="N4" s="54" t="str">
         <f t="array" ref="N4">IFERROR(VLOOKUP($A4,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="42" t="s">
+        <v>sub smp</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="R4" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="14">
-        <v>43111</v>
-      </c>
-      <c r="I5" s="41">
+      <c r="A5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="52">
+        <v>43160</v>
+      </c>
+      <c r="I5" s="53">
         <f t="array" ref="I5">IFERROR(VLOOKUP($A5,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J5" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J5" s="53">
         <f t="array" ref="J5">IFERROR(VLOOKUP($A5,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K5" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K5" s="53">
         <f t="array" ref="K5">IFERROR(VLOOKUP($A5,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="L5" s="42" t="str">
+        <v>43231</v>
+      </c>
+      <c r="L5" s="54" t="str">
         <f t="array" ref="L5">IFERROR(VLOOKUP($A5,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="54">
         <f t="array" ref="M5">IFERROR(VLOOKUP($A5,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="42">
+        <v>218</v>
+      </c>
+      <c r="N5" s="54" t="str">
         <f t="array" ref="N5">IFERROR(VLOOKUP($A5,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="42" t="s">
+        <v>l ost</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="R5" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" s="42"/>
+      <c r="S5" s="54"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="46">
-        <v>43116</v>
-      </c>
-      <c r="I6" s="41">
+      <c r="E6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="52">
+        <v>43132</v>
+      </c>
+      <c r="I6" s="53">
         <f t="array" ref="I6">IFERROR(VLOOKUP($A6,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="53">
         <f t="array" ref="J6">IFERROR(VLOOKUP($A6,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="53">
         <f t="array" ref="K6">IFERROR(VLOOKUP($A6,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43158</v>
-      </c>
-      <c r="L6" s="42" t="str">
+        <v>43193</v>
+      </c>
+      <c r="L6" s="54" t="str">
         <f t="array" ref="L6">IFERROR(VLOOKUP($A6,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>rq</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="54">
         <f t="array" ref="M6">IFERROR(VLOOKUP($A6,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>606</v>
-      </c>
-      <c r="N6" s="42" t="str">
+        <v>3</v>
+      </c>
+      <c r="N6" s="54" t="str">
         <f t="array" ref="N6">IFERROR(VLOOKUP($A6,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>clams</v>
-      </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
+        <v>med ost</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="54"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="46">
-        <v>43116</v>
-      </c>
-      <c r="I7" s="41">
+      <c r="E7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="52">
+        <v>43160</v>
+      </c>
+      <c r="I7" s="53">
         <f t="array" ref="I7">IFERROR(VLOOKUP($A7,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J7" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J7" s="53">
         <f t="array" ref="J7">IFERROR(VLOOKUP($A7,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K7" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K7" s="53">
         <f t="array" ref="K7">IFERROR(VLOOKUP($A7,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43152</v>
-      </c>
-      <c r="L7" s="42" t="str">
+        <v>43229</v>
+      </c>
+      <c r="L7" s="54" t="str">
         <f t="array" ref="L7">IFERROR(VLOOKUP($A7,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M7" s="42">
+        <v>dm</v>
+      </c>
+      <c r="M7" s="54">
         <f t="array" ref="M7">IFERROR(VLOOKUP($A7,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="42" t="str">
+      <c r="N7" s="54" t="str">
         <f t="array" ref="N7">IFERROR(VLOOKUP($A7,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>sample broke</v>
-      </c>
-      <c r="O7" s="42" t="s">
+        <v/>
+      </c>
+      <c r="O7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="42"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="15">
-        <v>43005</v>
-      </c>
-      <c r="I8" s="41">
+      <c r="E8" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="52">
+        <v>43132</v>
+      </c>
+      <c r="I8" s="53">
         <f t="array" ref="I8">IFERROR(VLOOKUP($A8,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="53">
         <f t="array" ref="J8">IFERROR(VLOOKUP($A8,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="53">
         <f t="array" ref="K8">IFERROR(VLOOKUP($A8,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43161</v>
-      </c>
-      <c r="L8" s="42" t="str">
+        <v>43194</v>
+      </c>
+      <c r="L8" s="54" t="str">
         <f t="array" ref="L8">IFERROR(VLOOKUP($A8,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>rq</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="54">
         <f t="array" ref="M8">IFERROR(VLOOKUP($A8,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>861</v>
-      </c>
-      <c r="N8" s="42" t="str">
+        <v>226</v>
+      </c>
+      <c r="N8" s="54" t="str">
         <f t="array" ref="N8">IFERROR(VLOOKUP($A8,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>clams</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+        <v>low ost</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S8" s="54"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="15">
-        <v>42991</v>
-      </c>
-      <c r="I9" s="41">
+      <c r="E9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="52">
+        <v>43160</v>
+      </c>
+      <c r="I9" s="53">
         <f t="array" ref="I9">IFERROR(VLOOKUP($A9,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J9" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J9" s="53">
         <f t="array" ref="J9">IFERROR(VLOOKUP($A9,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K9" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K9" s="53">
         <f t="array" ref="K9">IFERROR(VLOOKUP($A9,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43160</v>
-      </c>
-      <c r="L9" s="42" t="str">
+        <v>43231</v>
+      </c>
+      <c r="L9" s="54" t="str">
         <f t="array" ref="L9">IFERROR(VLOOKUP($A9,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="54">
         <f t="array" ref="M9">IFERROR(VLOOKUP($A9,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>876</v>
-      </c>
-      <c r="N9" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" s="54" t="str">
         <f t="array" ref="N9">IFERROR(VLOOKUP($A9,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>many other broken shells</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
+        <v>m ost</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="15">
-        <v>43080</v>
-      </c>
-      <c r="I10" s="41">
+      <c r="E10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="52">
+        <v>43131</v>
+      </c>
+      <c r="I10" s="53">
         <f t="array" ref="I10">IFERROR(VLOOKUP($A10,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="53">
         <f t="array" ref="J10">IFERROR(VLOOKUP($A10,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="53">
         <f t="array" ref="K10">IFERROR(VLOOKUP($A10,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43164</v>
-      </c>
-      <c r="L10" s="42" t="str">
+        <v>43195</v>
+      </c>
+      <c r="L10" s="54" t="str">
         <f t="array" ref="L10">IFERROR(VLOOKUP($A10,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M10" s="42">
+        <v>rq</v>
+      </c>
+      <c r="M10" s="54">
         <f t="array" ref="M10">IFERROR(VLOOKUP($A10,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>190</v>
-      </c>
-      <c r="N10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="54" t="str">
         <f t="array" ref="N10">IFERROR(VLOOKUP($A10,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
+        <v>low ost</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S10" s="54"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="15">
-        <v>43127</v>
-      </c>
-      <c r="I11" s="41">
+      <c r="E11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="52">
+        <v>43159</v>
+      </c>
+      <c r="I11" s="53">
         <f t="array" ref="I11">IFERROR(VLOOKUP($A11,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J11" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J11" s="53">
         <f t="array" ref="J11">IFERROR(VLOOKUP($A11,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K11" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K11" s="53">
         <f t="array" ref="K11">IFERROR(VLOOKUP($A11,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43164</v>
-      </c>
-      <c r="L11" s="42" t="str">
+        <v>43201</v>
+      </c>
+      <c r="L11" s="54" t="str">
         <f t="array" ref="L11">IFERROR(VLOOKUP($A11,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="54">
         <f t="array" ref="M11">IFERROR(VLOOKUP($A11,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>351</v>
-      </c>
-      <c r="N11" s="42" t="str">
-        <f t="array" ref="N11">IFERROR(VLOOKUP($A11,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>spilled @1ml</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="54" t="str">
+        <f>IFERROR(VLOOKUP($A11,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <v>h ost, l clam</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="54"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="15">
-        <v>43005</v>
-      </c>
-      <c r="I12" s="41">
+      <c r="E12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="52">
+        <v>43131</v>
+      </c>
+      <c r="I12" s="53">
         <f t="array" ref="I12">IFERROR(VLOOKUP($A12,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="53">
         <f t="array" ref="J12">IFERROR(VLOOKUP($A12,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="53">
         <f t="array" ref="K12">IFERROR(VLOOKUP($A12,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43164</v>
-      </c>
-      <c r="L12" s="42" t="str">
+        <v>43195</v>
+      </c>
+      <c r="L12" s="54" t="str">
         <f t="array" ref="L12">IFERROR(VLOOKUP($A12,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M12" s="42">
+        <v>rq</v>
+      </c>
+      <c r="M12" s="54">
         <f t="array" ref="M12">IFERROR(VLOOKUP($A12,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>2485</v>
-      </c>
-      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="54" t="str">
         <f t="array" ref="N12">IFERROR(VLOOKUP($A12,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+        <v>low ost</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="15">
-        <v>43052</v>
-      </c>
-      <c r="I13" s="41">
+      <c r="E13" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="52">
+        <v>43159</v>
+      </c>
+      <c r="I13" s="53">
         <f t="array" ref="I13">IFERROR(VLOOKUP($A13,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J13" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J13" s="53">
         <f t="array" ref="J13">IFERROR(VLOOKUP($A13,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K13" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K13" s="53">
         <f t="array" ref="K13">IFERROR(VLOOKUP($A13,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43165</v>
-      </c>
-      <c r="L13" s="42" t="str">
+        <v>43201</v>
+      </c>
+      <c r="L13" s="54" t="str">
         <f t="array" ref="L13">IFERROR(VLOOKUP($A13,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="54">
         <f t="array" ref="M13">IFERROR(VLOOKUP($A13,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>350</v>
-      </c>
-      <c r="N13" s="42">
+        <v>0</v>
+      </c>
+      <c r="N13" s="54" t="str">
         <f t="array" ref="N13">IFERROR(VLOOKUP($A13,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+        <v>m ost, l clam</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R13" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="15">
-        <v>43080</v>
-      </c>
-      <c r="I14" s="41">
+      <c r="E14" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="52">
+        <v>43131</v>
+      </c>
+      <c r="I14" s="53">
         <f t="array" ref="I14">IFERROR(VLOOKUP($A14,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="53">
         <f t="array" ref="J14">IFERROR(VLOOKUP($A14,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="53">
         <f t="array" ref="K14">IFERROR(VLOOKUP($A14,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43165</v>
-      </c>
-      <c r="L14" s="42" t="str">
+        <v>43195</v>
+      </c>
+      <c r="L14" s="54" t="str">
         <f t="array" ref="L14">IFERROR(VLOOKUP($A14,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M14" s="42">
+        <v>rq</v>
+      </c>
+      <c r="M14" s="54">
         <f t="array" ref="M14">IFERROR(VLOOKUP($A14,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>2164</v>
-      </c>
-      <c r="N14" s="42">
+        <v>0</v>
+      </c>
+      <c r="N14" s="54" t="str">
         <f t="array" ref="N14">IFERROR(VLOOKUP($A14,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+        <v>low ost</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S14" s="54"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="15">
-        <v>43127</v>
-      </c>
-      <c r="I15" s="41">
+      <c r="E15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="52">
+        <v>43159</v>
+      </c>
+      <c r="I15" s="53">
         <f t="array" ref="I15">IFERROR(VLOOKUP($A15,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J15" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J15" s="53">
         <f t="array" ref="J15">IFERROR(VLOOKUP($A15,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K15" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K15" s="53">
         <f t="array" ref="K15">IFERROR(VLOOKUP($A15,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43178</v>
-      </c>
-      <c r="L15" s="42" t="str">
+        <v>43202</v>
+      </c>
+      <c r="L15" s="54" t="str">
         <f t="array" ref="L15">IFERROR(VLOOKUP($A15,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="54">
         <f t="array" ref="M15">IFERROR(VLOOKUP($A15,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>252</v>
-      </c>
-      <c r="N15" s="42">
+        <v>0</v>
+      </c>
+      <c r="N15" s="54" t="str">
         <f t="array" ref="N15">IFERROR(VLOOKUP($A15,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+        <v/>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S15" s="54"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="15">
-        <v>43024</v>
-      </c>
-      <c r="I16" s="41">
+      <c r="E16" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="52">
+        <v>43131</v>
+      </c>
+      <c r="I16" s="53">
         <f t="array" ref="I16">IFERROR(VLOOKUP($A16,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="53">
         <f t="array" ref="J16">IFERROR(VLOOKUP($A16,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="53">
         <f t="array" ref="K16">IFERROR(VLOOKUP($A16,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43187</v>
-      </c>
-      <c r="L16" s="42" t="str">
+        <v>43203</v>
+      </c>
+      <c r="L16" s="54" t="str">
         <f t="array" ref="L16">IFERROR(VLOOKUP($A16,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M16" s="42">
+        <v>dm</v>
+      </c>
+      <c r="M16" s="54">
         <f t="array" ref="M16">IFERROR(VLOOKUP($A16,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>1984</v>
-      </c>
-      <c r="N16" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" s="54" t="str">
         <f t="array" ref="N16">IFERROR(VLOOKUP($A16,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>clams</v>
-      </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+        <v>m ost</v>
+      </c>
+      <c r="O16" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S16" s="54"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="15">
-        <v>43066</v>
-      </c>
-      <c r="I17" s="41">
+      <c r="E17" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="52">
+        <v>43159</v>
+      </c>
+      <c r="I17" s="53">
         <f t="array" ref="I17">IFERROR(VLOOKUP($A17,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J17" s="41">
+        <v>43185</v>
+      </c>
+      <c r="J17" s="53">
         <f t="array" ref="J17">IFERROR(VLOOKUP($A17,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K17" s="41">
+        <v>43186</v>
+      </c>
+      <c r="K17" s="53">
         <f t="array" ref="K17">IFERROR(VLOOKUP($A17,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43178</v>
-      </c>
-      <c r="L17" s="42" t="str">
+        <v>43202</v>
+      </c>
+      <c r="L17" s="54" t="str">
         <f t="array" ref="L17">IFERROR(VLOOKUP($A17,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="54">
         <f t="array" ref="M17">IFERROR(VLOOKUP($A17,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>269</v>
-      </c>
-      <c r="N17" s="42">
+        <v>0</v>
+      </c>
+      <c r="N17" s="54" t="str">
         <f t="array" ref="N17">IFERROR(VLOOKUP($A17,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+        <v>h ost</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="15">
-        <v>43108</v>
-      </c>
-      <c r="I18" s="41">
+      <c r="E18" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="52">
+        <v>43133</v>
+      </c>
+      <c r="I18" s="53">
         <f t="array" ref="I18">IFERROR(VLOOKUP($A18,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="53">
         <f t="array" ref="J18">IFERROR(VLOOKUP($A18,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="53">
         <f t="array" ref="K18">IFERROR(VLOOKUP($A18,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43193</v>
-      </c>
-      <c r="L18" s="42" t="str">
+        <v>43245</v>
+      </c>
+      <c r="L18" s="54" t="str">
         <f t="array" ref="L18">IFERROR(VLOOKUP($A18,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M18" s="42">
+        <v>cd</v>
+      </c>
+      <c r="M18" s="54">
         <f t="array" ref="M18">IFERROR(VLOOKUP($A18,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>270</v>
-      </c>
-      <c r="N18" s="42">
+        <v>40902</v>
+      </c>
+      <c r="N18" s="54" t="str">
         <f t="array" ref="N18">IFERROR(VLOOKUP($A18,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+        <v/>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="H19" s="52">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="I19" s="53">
         <f t="array" ref="I19">IFERROR(VLOOKUP($A19,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
@@ -49861,19 +49973,19 @@
       </c>
       <c r="K19" s="53">
         <f t="array" ref="K19">IFERROR(VLOOKUP($A19,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43193</v>
+        <v>43195</v>
       </c>
       <c r="L19" s="54" t="str">
         <f t="array" ref="L19">IFERROR(VLOOKUP($A19,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
+        <v>rq</v>
       </c>
       <c r="M19" s="54">
         <f t="array" ref="M19">IFERROR(VLOOKUP($A19,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>21567</v>
-      </c>
-      <c r="N19" s="54">
+        <v>11970</v>
+      </c>
+      <c r="N19" s="54" t="str">
         <f t="array" ref="N19">IFERROR(VLOOKUP($A19,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
+        <v>sub smp</v>
       </c>
       <c r="O19" s="54" t="s">
         <v>154</v>
@@ -49891,28 +50003,28 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="48" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>105</v>
       </c>
       <c r="H20" s="52">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="I20" s="53">
         <f t="array" ref="I20">IFERROR(VLOOKUP($A20,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
@@ -49924,7 +50036,7 @@
       </c>
       <c r="K20" s="53">
         <f t="array" ref="K20">IFERROR(VLOOKUP($A20,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43192</v>
+        <v>43236</v>
       </c>
       <c r="L20" s="54" t="str">
         <f t="array" ref="L20">IFERROR(VLOOKUP($A20,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -49932,7 +50044,7 @@
       </c>
       <c r="M20" s="54">
         <f t="array" ref="M20">IFERROR(VLOOKUP($A20,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>38550</v>
+        <v>159600</v>
       </c>
       <c r="N20" s="54" t="str">
         <f t="array" ref="N20">IFERROR(VLOOKUP($A20,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
@@ -49953,92 +50065,92 @@
       <c r="S20" s="54"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="52">
-        <v>43132</v>
-      </c>
-      <c r="I21" s="53">
+      <c r="F21" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="60">
+        <v>43133</v>
+      </c>
+      <c r="I21" s="61">
         <f t="array" ref="I21">IFERROR(VLOOKUP($A21,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="61">
         <f t="array" ref="J21">IFERROR(VLOOKUP($A21,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="61">
         <f t="array" ref="K21">IFERROR(VLOOKUP($A21,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43192</v>
-      </c>
-      <c r="L21" s="54" t="str">
+        <v>43271</v>
+      </c>
+      <c r="L21" s="62" t="str">
         <f t="array" ref="L21">IFERROR(VLOOKUP($A21,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M21" s="54">
+        <v>im</v>
+      </c>
+      <c r="M21" s="62">
         <f t="array" ref="M21">IFERROR(VLOOKUP($A21,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>29400</v>
-      </c>
-      <c r="N21" s="54" t="str">
+        <v>69750</v>
+      </c>
+      <c r="N21" s="62" t="str">
         <f t="array" ref="N21">IFERROR(VLOOKUP($A21,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>sub smp</v>
-      </c>
-      <c r="O21" s="54" t="s">
+        <v>(rq)</v>
+      </c>
+      <c r="O21" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="P21" s="54" t="s">
+      <c r="P21" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="Q21" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" s="54" t="s">
+      <c r="Q21" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="S21" s="54"/>
+      <c r="R21" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="H22" s="52">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="I22" s="53">
         <f t="array" ref="I22">IFERROR(VLOOKUP($A22,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
@@ -50050,19 +50162,19 @@
       </c>
       <c r="K22" s="53">
         <f t="array" ref="K22">IFERROR(VLOOKUP($A22,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43193</v>
+        <v>43245</v>
       </c>
       <c r="L22" s="54" t="str">
         <f t="array" ref="L22">IFERROR(VLOOKUP($A22,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
+        <v>im</v>
       </c>
       <c r="M22" s="54">
         <f t="array" ref="M22">IFERROR(VLOOKUP($A22,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>3</v>
+        <v>125550</v>
       </c>
       <c r="N22" s="54" t="str">
         <f t="array" ref="N22">IFERROR(VLOOKUP($A22,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>med ost</v>
+        <v>sub sampled</v>
       </c>
       <c r="O22" s="54" t="s">
         <v>154</v>
@@ -50080,7 +50192,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="48" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>52</v>
@@ -50088,20 +50200,20 @@
       <c r="C23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>92</v>
+        <v>129</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="H23" s="52">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="I23" s="53">
         <f t="array" ref="I23">IFERROR(VLOOKUP($A23,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
@@ -50113,28 +50225,28 @@
       </c>
       <c r="K23" s="53">
         <f t="array" ref="K23">IFERROR(VLOOKUP($A23,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43194</v>
+        <v>43202</v>
       </c>
       <c r="L23" s="54" t="str">
         <f t="array" ref="L23">IFERROR(VLOOKUP($A23,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
+        <v>dm</v>
       </c>
       <c r="M23" s="54">
         <f t="array" ref="M23">IFERROR(VLOOKUP($A23,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="N23" s="54" t="str">
         <f t="array" ref="N23">IFERROR(VLOOKUP($A23,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>low ost</v>
+        <v/>
       </c>
       <c r="O23" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P23" s="54" t="s">
         <v>153</v>
       </c>
       <c r="Q23" s="54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R23" s="54" t="s">
         <v>153</v>
@@ -50142,1108 +50254,1016 @@
       <c r="S23" s="54"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="52">
-        <v>43131</v>
-      </c>
-      <c r="I24" s="53">
+      <c r="A24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="14">
+        <v>43111</v>
+      </c>
+      <c r="I24" s="41">
         <f t="array" ref="I24">IFERROR(VLOOKUP($A24,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="41">
         <f t="array" ref="J24">IFERROR(VLOOKUP($A24,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="41">
         <f t="array" ref="K24">IFERROR(VLOOKUP($A24,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L24" s="54" t="str">
+        <v>43144</v>
+      </c>
+      <c r="L24" s="42" t="str">
         <f t="array" ref="L24">IFERROR(VLOOKUP($A24,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M24" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M24" s="42">
         <f t="array" ref="M24">IFERROR(VLOOKUP($A24,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N24" s="54" t="str">
+      <c r="N24" s="42" t="str">
         <f t="array" ref="N24">IFERROR(VLOOKUP($A24,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>low ost</v>
-      </c>
-      <c r="O24" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O24" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q24" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R24" s="54" t="s">
+      <c r="Q24" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S24" s="54"/>
+      <c r="R24" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="52">
-        <v>43131</v>
-      </c>
-      <c r="I25" s="53">
+      <c r="A25" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="14">
+        <v>43157</v>
+      </c>
+      <c r="I25" s="41">
         <f t="array" ref="I25">IFERROR(VLOOKUP($A25,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J25" s="53">
+        <v>43160</v>
+      </c>
+      <c r="J25" s="41">
         <f t="array" ref="J25">IFERROR(VLOOKUP($A25,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K25" s="53">
+        <v>43161</v>
+      </c>
+      <c r="K25" s="41">
         <f t="array" ref="K25">IFERROR(VLOOKUP($A25,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L25" s="54" t="str">
+        <v>43161</v>
+      </c>
+      <c r="L25" s="42" t="str">
         <f t="array" ref="L25">IFERROR(VLOOKUP($A25,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M25" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M25" s="42">
         <f t="array" ref="M25">IFERROR(VLOOKUP($A25,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N25" s="54" t="str">
+      <c r="N25" s="42" t="str">
         <f t="array" ref="N25">IFERROR(VLOOKUP($A25,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>low ost</v>
-      </c>
-      <c r="O25" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O25" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="54" t="s">
+      <c r="P25" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q25" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R25" s="54" t="s">
+      <c r="Q25" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="54"/>
+      <c r="R25" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="52">
-        <v>43131</v>
-      </c>
-      <c r="I26" s="53">
+      <c r="A26" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="14">
+        <v>43111</v>
+      </c>
+      <c r="I26" s="41">
         <f t="array" ref="I26">IFERROR(VLOOKUP($A26,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="41">
         <f t="array" ref="J26">IFERROR(VLOOKUP($A26,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="41">
         <f t="array" ref="K26">IFERROR(VLOOKUP($A26,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L26" s="54" t="str">
+        <v>43144</v>
+      </c>
+      <c r="L26" s="42" t="str">
         <f t="array" ref="L26">IFERROR(VLOOKUP($A26,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M26" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M26" s="42">
         <f t="array" ref="M26">IFERROR(VLOOKUP($A26,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N26" s="54" t="str">
+      <c r="N26" s="42" t="str">
         <f t="array" ref="N26">IFERROR(VLOOKUP($A26,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>low ost</v>
-      </c>
-      <c r="O26" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O26" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P26" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q26" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R26" s="54" t="s">
+      <c r="Q26" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S26" s="54"/>
+      <c r="R26" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="52">
-        <v>43131</v>
-      </c>
-      <c r="I27" s="53">
+      <c r="A27" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="14">
+        <v>43157</v>
+      </c>
+      <c r="I27" s="41">
         <f t="array" ref="I27">IFERROR(VLOOKUP($A27,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J27" s="53">
+        <v>43160</v>
+      </c>
+      <c r="J27" s="41">
         <f t="array" ref="J27">IFERROR(VLOOKUP($A27,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K27" s="53">
+        <v>43161</v>
+      </c>
+      <c r="K27" s="41">
         <f t="array" ref="K27">IFERROR(VLOOKUP($A27,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43203</v>
-      </c>
-      <c r="L27" s="54" t="str">
+        <v>43161</v>
+      </c>
+      <c r="L27" s="42" t="str">
         <f t="array" ref="L27">IFERROR(VLOOKUP($A27,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="42">
         <f t="array" ref="M27">IFERROR(VLOOKUP($A27,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N27" s="54" t="str">
+      <c r="N27" s="42" t="str">
         <f t="array" ref="N27">IFERROR(VLOOKUP($A27,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>m ost</v>
-      </c>
-      <c r="O27" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O27" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P27" s="54" t="s">
+      <c r="P27" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q27" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R27" s="54" t="s">
+      <c r="Q27" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S27" s="54"/>
+      <c r="R27" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I28" s="53">
+      <c r="A28" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="14">
+        <v>43111</v>
+      </c>
+      <c r="I28" s="41">
         <f t="array" ref="I28">IFERROR(VLOOKUP($A28,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="41">
         <f t="array" ref="J28">IFERROR(VLOOKUP($A28,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="41">
         <f t="array" ref="K28">IFERROR(VLOOKUP($A28,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L28" s="54" t="str">
+        <v>43144</v>
+      </c>
+      <c r="L28" s="42" t="str">
         <f t="array" ref="L28">IFERROR(VLOOKUP($A28,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M28" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M28" s="42">
         <f t="array" ref="M28">IFERROR(VLOOKUP($A28,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>11970</v>
-      </c>
-      <c r="N28" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" s="42" t="str">
         <f t="array" ref="N28">IFERROR(VLOOKUP($A28,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>sub smp</v>
-      </c>
-      <c r="O28" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q28" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R28" s="54" t="s">
+      <c r="Q28" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S28" s="54"/>
+      <c r="R28" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I29" s="53">
+      <c r="A29" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="14">
+        <v>43157</v>
+      </c>
+      <c r="I29" s="41">
         <f t="array" ref="I29">IFERROR(VLOOKUP($A29,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J29" s="53">
+        <v>43160</v>
+      </c>
+      <c r="J29" s="41">
         <f t="array" ref="J29">IFERROR(VLOOKUP($A29,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K29" s="53">
+        <v>43161</v>
+      </c>
+      <c r="K29" s="41">
         <f t="array" ref="K29">IFERROR(VLOOKUP($A29,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43236</v>
-      </c>
-      <c r="L29" s="54" t="str">
+        <v>43161</v>
+      </c>
+      <c r="L29" s="42" t="str">
         <f t="array" ref="L29">IFERROR(VLOOKUP($A29,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>rq</v>
-      </c>
-      <c r="M29" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M29" s="42">
         <f t="array" ref="M29">IFERROR(VLOOKUP($A29,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>159600</v>
-      </c>
-      <c r="N29" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" s="42" t="str">
         <f t="array" ref="N29">IFERROR(VLOOKUP($A29,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>sub smp</v>
-      </c>
-      <c r="O29" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q29" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R29" s="54" t="s">
+      <c r="Q29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S29" s="54"/>
+      <c r="R29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="60">
-        <v>43133</v>
-      </c>
-      <c r="I30" s="61">
+        <v>49</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="14">
+        <v>43111</v>
+      </c>
+      <c r="I30" s="41">
         <f t="array" ref="I30">IFERROR(VLOOKUP($A30,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J30" s="61">
+      <c r="J30" s="41">
         <f t="array" ref="J30">IFERROR(VLOOKUP($A30,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30" s="41">
         <f t="array" ref="K30">IFERROR(VLOOKUP($A30,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43271</v>
-      </c>
-      <c r="L30" s="62" t="str">
+        <v>43144</v>
+      </c>
+      <c r="L30" s="42" t="str">
         <f t="array" ref="L30">IFERROR(VLOOKUP($A30,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>im</v>
-      </c>
-      <c r="M30" s="62">
+        <v>dm</v>
+      </c>
+      <c r="M30" s="42">
         <f t="array" ref="M30">IFERROR(VLOOKUP($A30,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>69750</v>
-      </c>
-      <c r="N30" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="N30" s="42" t="str">
         <f t="array" ref="N30">IFERROR(VLOOKUP($A30,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>(rq)</v>
-      </c>
-      <c r="O30" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" s="62" t="s">
+        <v/>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q30" s="62" t="s">
+      <c r="Q30" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="R30" s="62" t="s">
+      <c r="R30" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S30" s="62"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I31" s="53">
+      <c r="A31" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="14">
+        <v>43157</v>
+      </c>
+      <c r="I31" s="41">
         <f t="array" ref="I31">IFERROR(VLOOKUP($A31,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43144</v>
-      </c>
-      <c r="J31" s="53">
+        <v>43160</v>
+      </c>
+      <c r="J31" s="41">
         <f t="array" ref="J31">IFERROR(VLOOKUP($A31,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43145</v>
-      </c>
-      <c r="K31" s="53">
+        <v>43161</v>
+      </c>
+      <c r="K31" s="41">
         <f t="array" ref="K31">IFERROR(VLOOKUP($A31,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43245</v>
-      </c>
-      <c r="L31" s="54" t="str">
+        <v>43161</v>
+      </c>
+      <c r="L31" s="42" t="str">
         <f t="array" ref="L31">IFERROR(VLOOKUP($A31,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>im</v>
-      </c>
-      <c r="M31" s="54">
+        <v>dm</v>
+      </c>
+      <c r="M31" s="42">
         <f t="array" ref="M31">IFERROR(VLOOKUP($A31,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>125550</v>
-      </c>
-      <c r="N31" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N31" s="42" t="str">
         <f t="array" ref="N31">IFERROR(VLOOKUP($A31,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>sub sampled</v>
-      </c>
-      <c r="O31" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P31" s="54" t="s">
+        <v/>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P31" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q31" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R31" s="54" t="s">
+      <c r="Q31" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S31" s="54"/>
+      <c r="R31" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A32" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="50" t="s">
+      <c r="C32" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I32" s="53">
+      <c r="E32" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="46">
+        <v>43116</v>
+      </c>
+      <c r="I32" s="41">
         <f t="array" ref="I32">IFERROR(VLOOKUP($A32,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="41">
         <f t="array" ref="J32">IFERROR(VLOOKUP($A32,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="41">
         <f t="array" ref="K32">IFERROR(VLOOKUP($A32,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43245</v>
-      </c>
-      <c r="L32" s="54" t="str">
+        <v>43158</v>
+      </c>
+      <c r="L32" s="42" t="str">
         <f t="array" ref="L32">IFERROR(VLOOKUP($A32,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>cd</v>
-      </c>
-      <c r="M32" s="54">
+        <v>rq</v>
+      </c>
+      <c r="M32" s="42">
         <f t="array" ref="M32">IFERROR(VLOOKUP($A32,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>40902</v>
-      </c>
-      <c r="N32" s="54">
+        <v>606</v>
+      </c>
+      <c r="N32" s="42" t="str">
         <f t="array" ref="N32">IFERROR(VLOOKUP($A32,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P32" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R32" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S32" s="54"/>
+        <v>clams</v>
+      </c>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="50" t="s">
+      <c r="C33" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="52">
-        <v>43132</v>
-      </c>
-      <c r="I33" s="53">
+      <c r="E33" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="46">
+        <v>43116</v>
+      </c>
+      <c r="I33" s="41">
         <f t="array" ref="I33">IFERROR(VLOOKUP($A33,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="41">
         <f t="array" ref="J33">IFERROR(VLOOKUP($A33,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="41">
         <f t="array" ref="K33">IFERROR(VLOOKUP($A33,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L33" s="54" t="str">
+        <v>43152</v>
+      </c>
+      <c r="L33" s="42" t="str">
         <f t="array" ref="L33">IFERROR(VLOOKUP($A33,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M33" s="54">
+        <v>rq</v>
+      </c>
+      <c r="M33" s="42">
         <f t="array" ref="M33">IFERROR(VLOOKUP($A33,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N33" s="54">
+      <c r="N33" s="42" t="str">
         <f t="array" ref="N33">IFERROR(VLOOKUP($A33,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="54" t="s">
+        <v>sample broke</v>
+      </c>
+      <c r="O33" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P33" s="54" t="s">
+      <c r="P33" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q33" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R33" s="54" t="s">
+      <c r="Q33" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="S33" s="54"/>
+      <c r="R33" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A34" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="52">
-        <v>43132</v>
-      </c>
-      <c r="I34" s="53">
+      <c r="E34" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="15">
+        <v>43024</v>
+      </c>
+      <c r="I34" s="41">
         <f t="array" ref="I34">IFERROR(VLOOKUP($A34,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="41">
         <f t="array" ref="J34">IFERROR(VLOOKUP($A34,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="41">
         <f t="array" ref="K34">IFERROR(VLOOKUP($A34,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L34" s="54" t="str">
+        <v>43187</v>
+      </c>
+      <c r="L34" s="42" t="str">
         <f t="array" ref="L34">IFERROR(VLOOKUP($A34,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M34" s="54">
+        <v>rq</v>
+      </c>
+      <c r="M34" s="42">
         <f t="array" ref="M34">IFERROR(VLOOKUP($A34,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="54" t="str">
+        <v>1984</v>
+      </c>
+      <c r="N34" s="42" t="str">
         <f t="array" ref="N34">IFERROR(VLOOKUP($A34,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>l ost</v>
-      </c>
-      <c r="O34" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="P34" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q34" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R34" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S34" s="54"/>
+        <v>clams</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A35" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="50" t="s">
+      <c r="C35" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="52">
-        <v>43132</v>
-      </c>
-      <c r="I35" s="53">
+      <c r="E35" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="15">
+        <v>43066</v>
+      </c>
+      <c r="I35" s="41">
         <f t="array" ref="I35">IFERROR(VLOOKUP($A35,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="41">
         <f t="array" ref="J35">IFERROR(VLOOKUP($A35,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="41">
         <f t="array" ref="K35">IFERROR(VLOOKUP($A35,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43195</v>
-      </c>
-      <c r="L35" s="54" t="str">
+        <v>43178</v>
+      </c>
+      <c r="L35" s="42" t="str">
         <f t="array" ref="L35">IFERROR(VLOOKUP($A35,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M35" s="54">
+      <c r="M35" s="42">
         <f t="array" ref="M35">IFERROR(VLOOKUP($A35,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="54">
+        <v>269</v>
+      </c>
+      <c r="N35" s="42" t="str">
         <f t="array" ref="N35">IFERROR(VLOOKUP($A35,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="P35" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q35" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R35" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S35" s="54"/>
+        <v/>
+      </c>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H36" s="52">
-        <v>43132</v>
-      </c>
-      <c r="I36" s="53">
+      <c r="E36" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="15">
+        <v>43108</v>
+      </c>
+      <c r="I36" s="41">
         <f t="array" ref="I36">IFERROR(VLOOKUP($A36,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="41">
         <f t="array" ref="J36">IFERROR(VLOOKUP($A36,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="41">
         <f t="array" ref="K36">IFERROR(VLOOKUP($A36,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43199</v>
-      </c>
-      <c r="L36" s="54" t="str">
+        <v>43193</v>
+      </c>
+      <c r="L36" s="42" t="str">
         <f t="array" ref="L36">IFERROR(VLOOKUP($A36,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M36" s="54">
+      <c r="M36" s="42">
         <f t="array" ref="M36">IFERROR(VLOOKUP($A36,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="54" t="str">
+        <v>270</v>
+      </c>
+      <c r="N36" s="42" t="str">
         <f t="array" ref="N36">IFERROR(VLOOKUP($A36,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>l ost</v>
-      </c>
-      <c r="O36" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="P36" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q36" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R36" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S36" s="54"/>
+        <v/>
+      </c>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="50" t="s">
+      <c r="C37" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I37" s="53">
+      <c r="E37" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="15">
+        <v>42991</v>
+      </c>
+      <c r="I37" s="41">
         <f t="array" ref="I37">IFERROR(VLOOKUP($A37,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="41">
         <f t="array" ref="J37">IFERROR(VLOOKUP($A37,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="41">
         <f t="array" ref="K37">IFERROR(VLOOKUP($A37,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43199</v>
-      </c>
-      <c r="L37" s="54" t="str">
+        <v>43160</v>
+      </c>
+      <c r="L37" s="42" t="str">
         <f t="array" ref="L37">IFERROR(VLOOKUP($A37,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M37" s="54">
+      <c r="M37" s="42">
         <f t="array" ref="M37">IFERROR(VLOOKUP($A37,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>6690</v>
-      </c>
-      <c r="N37" s="54">
+        <v>876</v>
+      </c>
+      <c r="N37" s="42" t="str">
         <f t="array" ref="N37">IFERROR(VLOOKUP($A37,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q37" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R37" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S37" s="54"/>
+        <v>many other broken shells</v>
+      </c>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A38" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I38" s="53">
+      <c r="E38" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="15">
+        <v>43005</v>
+      </c>
+      <c r="I38" s="41">
         <f t="array" ref="I38">IFERROR(VLOOKUP($A38,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="41">
         <f t="array" ref="J38">IFERROR(VLOOKUP($A38,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="41">
         <f t="array" ref="K38">IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43202</v>
-      </c>
-      <c r="L38" s="54" t="str">
+        <v>43161</v>
+      </c>
+      <c r="L38" s="42" t="str">
         <f t="array" ref="L38">IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
-        <v>dm</v>
-      </c>
-      <c r="M38" s="54">
+        <v>rq</v>
+      </c>
+      <c r="M38" s="42">
         <f t="array" ref="M38">IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>697</v>
-      </c>
-      <c r="N38" s="54" t="str">
-        <f>IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>l ost</v>
-      </c>
-      <c r="O38" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P38" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q38" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R38" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S38" s="54"/>
+        <v>861</v>
+      </c>
+      <c r="N38" s="42" t="str">
+        <f t="array" ref="N38">IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <v>clams</v>
+      </c>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I39" s="53">
+      <c r="E39" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="15">
+        <v>43080</v>
+      </c>
+      <c r="I39" s="41">
         <f t="array" ref="I39">IFERROR(VLOOKUP($A39,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="41">
         <f t="array" ref="J39">IFERROR(VLOOKUP($A39,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="41">
         <f t="array" ref="K39">IFERROR(VLOOKUP($A39,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43202</v>
-      </c>
-      <c r="L39" s="54" t="str">
+        <v>43164</v>
+      </c>
+      <c r="L39" s="42" t="str">
         <f t="array" ref="L39">IFERROR(VLOOKUP($A39,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M39" s="54">
+      <c r="M39" s="42">
         <f t="array" ref="M39">IFERROR(VLOOKUP($A39,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>143</v>
-      </c>
-      <c r="N39" s="54">
+        <v>190</v>
+      </c>
+      <c r="N39" s="42" t="str">
         <f t="array" ref="N39">IFERROR(VLOOKUP($A39,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P39" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q39" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="R39" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="54"/>
+        <v/>
+      </c>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="52">
-        <v>43133</v>
-      </c>
-      <c r="I40" s="53">
+      <c r="E40" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="15">
+        <v>43127</v>
+      </c>
+      <c r="I40" s="41">
         <f t="array" ref="I40">IFERROR(VLOOKUP($A40,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
         <v>43144</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="41">
         <f t="array" ref="J40">IFERROR(VLOOKUP($A40,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
         <v>43145</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="41">
         <f t="array" ref="K40">IFERROR(VLOOKUP($A40,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43202</v>
-      </c>
-      <c r="L40" s="54" t="str">
+        <v>43164</v>
+      </c>
+      <c r="L40" s="42" t="str">
         <f t="array" ref="L40">IFERROR(VLOOKUP($A40,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
         <v>dm</v>
       </c>
-      <c r="M40" s="54">
+      <c r="M40" s="42">
         <f t="array" ref="M40">IFERROR(VLOOKUP($A40,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="54">
+        <v>351</v>
+      </c>
+      <c r="N40" s="42" t="str">
         <f t="array" ref="N40">IFERROR(VLOOKUP($A40,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="P40" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q40" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="R40" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="S40" s="54"/>
+        <v>spilled @1ml</v>
+      </c>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="14">
-        <v>43157</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="15">
+        <v>43005</v>
       </c>
       <c r="I41" s="41">
         <f t="array" ref="I41">IFERROR(VLOOKUP($A41,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43160</v>
+        <v>43144</v>
       </c>
       <c r="J41" s="41">
         <f t="array" ref="J41">IFERROR(VLOOKUP($A41,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43161</v>
+        <v>43145</v>
       </c>
       <c r="K41" s="41">
         <f t="array" ref="K41">IFERROR(VLOOKUP($A41,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="L41" s="42" t="str">
         <f t="array" ref="L41">IFERROR(VLOOKUP($A41,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51251,58 +51271,54 @@
       </c>
       <c r="M41" s="42">
         <f t="array" ref="M41">IFERROR(VLOOKUP($A41,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="42">
+        <v>2485</v>
+      </c>
+      <c r="N41" s="42" t="str">
         <f t="array" ref="N41">IFERROR(VLOOKUP($A41,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="P41" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q41" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R41" s="42" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
       <c r="S41" s="42"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="14">
-        <v>43157</v>
+        <v>70</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="15">
+        <v>43052</v>
       </c>
       <c r="I42" s="41">
         <f t="array" ref="I42">IFERROR(VLOOKUP($A42,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43160</v>
+        <v>43144</v>
       </c>
       <c r="J42" s="41">
         <f t="array" ref="J42">IFERROR(VLOOKUP($A42,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43161</v>
+        <v>43145</v>
       </c>
       <c r="K42" s="41">
         <f t="array" ref="K42">IFERROR(VLOOKUP($A42,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43161</v>
+        <v>43165</v>
       </c>
       <c r="L42" s="42" t="str">
         <f t="array" ref="L42">IFERROR(VLOOKUP($A42,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51310,58 +51326,54 @@
       </c>
       <c r="M42" s="42">
         <f t="array" ref="M42">IFERROR(VLOOKUP($A42,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="42">
+        <v>350</v>
+      </c>
+      <c r="N42" s="42" t="str">
         <f t="array" ref="N42">IFERROR(VLOOKUP($A42,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="P42" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q42" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R42" s="42" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
       <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="14">
-        <v>43157</v>
+        <v>72</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="15">
+        <v>43080</v>
       </c>
       <c r="I43" s="41">
         <f t="array" ref="I43">IFERROR(VLOOKUP($A43,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43160</v>
+        <v>43144</v>
       </c>
       <c r="J43" s="41">
         <f t="array" ref="J43">IFERROR(VLOOKUP($A43,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43161</v>
+        <v>43145</v>
       </c>
       <c r="K43" s="41">
         <f t="array" ref="K43">IFERROR(VLOOKUP($A43,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43161</v>
+        <v>43165</v>
       </c>
       <c r="L43" s="42" t="str">
         <f t="array" ref="L43">IFERROR(VLOOKUP($A43,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51369,58 +51381,54 @@
       </c>
       <c r="M43" s="42">
         <f t="array" ref="M43">IFERROR(VLOOKUP($A43,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="42">
+        <v>2164</v>
+      </c>
+      <c r="N43" s="42" t="str">
         <f t="array" ref="N43">IFERROR(VLOOKUP($A43,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="P43" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R43" s="42" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
       <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="14">
-        <v>43157</v>
+        <v>73</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="15">
+        <v>43127</v>
       </c>
       <c r="I44" s="41">
         <f t="array" ref="I44">IFERROR(VLOOKUP($A44,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43160</v>
+        <v>43144</v>
       </c>
       <c r="J44" s="41">
         <f t="array" ref="J44">IFERROR(VLOOKUP($A44,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43161</v>
+        <v>43145</v>
       </c>
       <c r="K44" s="41">
         <f t="array" ref="K44">IFERROR(VLOOKUP($A44,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43161</v>
+        <v>43178</v>
       </c>
       <c r="L44" s="42" t="str">
         <f t="array" ref="L44">IFERROR(VLOOKUP($A44,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51428,62 +51436,54 @@
       </c>
       <c r="M44" s="42">
         <f t="array" ref="M44">IFERROR(VLOOKUP($A44,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="42">
+        <v>252</v>
+      </c>
+      <c r="N44" s="42" t="str">
         <f t="array" ref="N44">IFERROR(VLOOKUP($A44,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="P44" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q44" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="R44" s="42" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
       <c r="S44" s="42"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="48" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B45" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>88</v>
+        <v>113</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="H45" s="52">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="I45" s="53">
         <f t="array" ref="I45">IFERROR(VLOOKUP($A45,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J45" s="53">
         <f t="array" ref="J45">IFERROR(VLOOKUP($A45,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K45" s="53">
         <f t="array" ref="K45">IFERROR(VLOOKUP($A45,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43231</v>
+        <v>43195</v>
       </c>
       <c r="L45" s="54" t="str">
         <f t="array" ref="L45">IFERROR(VLOOKUP($A45,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51491,14 +51491,14 @@
       </c>
       <c r="M45" s="54">
         <f t="array" ref="M45">IFERROR(VLOOKUP($A45,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N45" s="54" t="str">
         <f t="array" ref="N45">IFERROR(VLOOKUP($A45,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>l ost</v>
+        <v/>
       </c>
       <c r="O45" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P45" s="54" t="s">
         <v>153</v>
@@ -51513,7 +51513,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="48" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B46" s="49" t="s">
         <v>52</v>
@@ -51528,25 +51528,25 @@
         <v>80</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="H46" s="52">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="I46" s="53">
         <f t="array" ref="I46">IFERROR(VLOOKUP($A46,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J46" s="53">
         <f t="array" ref="J46">IFERROR(VLOOKUP($A46,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K46" s="53">
         <f t="array" ref="K46">IFERROR(VLOOKUP($A46,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43229</v>
+        <v>43195</v>
       </c>
       <c r="L46" s="54" t="str">
         <f t="array" ref="L46">IFERROR(VLOOKUP($A46,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51556,9 +51556,9 @@
         <f t="array" ref="M46">IFERROR(VLOOKUP($A46,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N46" s="54">
+      <c r="N46" s="54" t="str">
         <f t="array" ref="N46">IFERROR(VLOOKUP($A46,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
+        <v>l ost</v>
       </c>
       <c r="O46" s="54" t="s">
         <v>152</v>
@@ -51567,7 +51567,7 @@
         <v>153</v>
       </c>
       <c r="Q46" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R46" s="54" t="s">
         <v>153</v>
@@ -51576,40 +51576,40 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B47" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="48" t="s">
         <v>80</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H47" s="52">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="I47" s="53">
         <f t="array" ref="I47">IFERROR(VLOOKUP($A47,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J47" s="53">
         <f t="array" ref="J47">IFERROR(VLOOKUP($A47,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K47" s="53">
         <f t="array" ref="K47">IFERROR(VLOOKUP($A47,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43231</v>
+        <v>43195</v>
       </c>
       <c r="L47" s="54" t="str">
         <f t="array" ref="L47">IFERROR(VLOOKUP($A47,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51621,7 +51621,7 @@
       </c>
       <c r="N47" s="54" t="str">
         <f t="array" ref="N47">IFERROR(VLOOKUP($A47,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>m ost</v>
+        <v/>
       </c>
       <c r="O47" s="54" t="s">
         <v>152</v>
@@ -51630,7 +51630,7 @@
         <v>153</v>
       </c>
       <c r="Q47" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R47" s="54" t="s">
         <v>153</v>
@@ -51639,7 +51639,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B48" s="49" t="s">
         <v>52</v>
@@ -51654,25 +51654,25 @@
         <v>80</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="G48" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="H48" s="52">
-        <v>43159</v>
+        <v>43132</v>
       </c>
       <c r="I48" s="53">
         <f t="array" ref="I48">IFERROR(VLOOKUP($A48,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J48" s="53">
         <f t="array" ref="J48">IFERROR(VLOOKUP($A48,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K48" s="53">
         <f t="array" ref="K48">IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43201</v>
+        <v>43199</v>
       </c>
       <c r="L48" s="54" t="str">
         <f t="array" ref="L48">IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51683,8 +51683,8 @@
         <v>0</v>
       </c>
       <c r="N48" s="54" t="str">
-        <f>IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>h ost, l clam</v>
+        <f t="array" ref="N48">IFERROR(VLOOKUP($A48,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <v>l ost</v>
       </c>
       <c r="O48" s="54" t="s">
         <v>152</v>
@@ -51702,7 +51702,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B49" s="49" t="s">
         <v>52</v>
@@ -51717,25 +51717,25 @@
         <v>80</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="H49" s="52">
-        <v>43159</v>
+        <v>43133</v>
       </c>
       <c r="I49" s="53">
         <f t="array" ref="I49">IFERROR(VLOOKUP($A49,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J49" s="53">
         <f t="array" ref="J49">IFERROR(VLOOKUP($A49,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K49" s="53">
         <f t="array" ref="K49">IFERROR(VLOOKUP($A49,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
-        <v>43201</v>
+        <v>43199</v>
       </c>
       <c r="L49" s="54" t="str">
         <f t="array" ref="L49">IFERROR(VLOOKUP($A49,'[1]2018Results'!A$2:H$1859,6,FALSE),"")</f>
@@ -51743,14 +51743,14 @@
       </c>
       <c r="M49" s="54">
         <f t="array" ref="M49">IFERROR(VLOOKUP($A49,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
+        <v>6690</v>
       </c>
       <c r="N49" s="54" t="str">
         <f t="array" ref="N49">IFERROR(VLOOKUP($A49,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>m ost, l clam</v>
+        <v/>
       </c>
       <c r="O49" s="54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P49" s="54" t="s">
         <v>153</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="48" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B50" s="49" t="s">
         <v>52</v>
@@ -51780,21 +51780,21 @@
         <v>80</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>98</v>
+        <v>122</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="H50" s="52">
-        <v>43159</v>
+        <v>43133</v>
       </c>
       <c r="I50" s="53">
         <f t="array" ref="I50">IFERROR(VLOOKUP($A50,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J50" s="53">
         <f t="array" ref="J50">IFERROR(VLOOKUP($A50,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K50" s="53">
         <f t="array" ref="K50">IFERROR(VLOOKUP($A50,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
@@ -51806,14 +51806,14 @@
       </c>
       <c r="M50" s="54">
         <f t="array" ref="M50">IFERROR(VLOOKUP($A50,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="54">
-        <f t="array" ref="N50">IFERROR(VLOOKUP($A50,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>0</v>
+        <v>697</v>
+      </c>
+      <c r="N50" s="54" t="str">
+        <f>IFERROR(VLOOKUP($A50,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <v>l ost</v>
       </c>
       <c r="O50" s="54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P50" s="54" t="s">
         <v>153</v>
@@ -51828,7 +51828,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="48" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B51" s="49" t="s">
         <v>52</v>
@@ -51843,21 +51843,21 @@
         <v>80</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="G51" s="56" t="s">
+        <v>127</v>
       </c>
       <c r="H51" s="52">
-        <v>43159</v>
+        <v>43133</v>
       </c>
       <c r="I51" s="53">
         <f t="array" ref="I51">IFERROR(VLOOKUP($A51,'[1]2018Prep'!A$2:H$1994,5,FALSE),"")</f>
-        <v>43185</v>
+        <v>43144</v>
       </c>
       <c r="J51" s="53">
         <f t="array" ref="J51">IFERROR(VLOOKUP($A51,'[1]2018Prep'!A$2:H$1994,5,FALSE)+1,"")</f>
-        <v>43186</v>
+        <v>43145</v>
       </c>
       <c r="K51" s="53">
         <f t="array" ref="K51">IFERROR(VLOOKUP($A51,'[1]2018Results'!A$2:H$1859,5,FALSE),"")</f>
@@ -51869,27 +51869,32 @@
       </c>
       <c r="M51" s="54">
         <f t="array" ref="M51">IFERROR(VLOOKUP($A51,'[1]2018Results'!A$2:H$1859,7,FALSE),"")</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N51" s="54" t="str">
         <f t="array" ref="N51">IFERROR(VLOOKUP($A51,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
-        <v>h ost</v>
+        <v/>
       </c>
       <c r="O51" s="54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P51" s="54" t="s">
         <v>153</v>
       </c>
       <c r="Q51" s="54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="R51" s="54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="S51" s="54"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S51">
+    <sortCondition ref="F2:F51"/>
+    <sortCondition ref="G2:G51"/>
+    <sortCondition ref="H2:H51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
